--- a/predictions полгода до/Прогнозы_ETS_CM4.xlsx
+++ b/predictions полгода до/Прогнозы_ETS_CM4.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21477641.43861939</v>
+        <v>20533515.38933481</v>
       </c>
       <c r="C2" t="n">
-        <v>20974956.91623303</v>
+        <v>18851379.62586146</v>
       </c>
       <c r="D2" t="n">
-        <v>18729134.36894753</v>
+        <v>20502359.05581903</v>
       </c>
       <c r="E2" t="n">
-        <v>19821334.86275574</v>
+        <v>21185793.95982451</v>
       </c>
       <c r="F2" t="n">
-        <v>20255169.84716017</v>
+        <v>21577037.23610651</v>
       </c>
       <c r="G2" t="n">
-        <v>19752485.32477381</v>
+        <v>19894901.47263316</v>
       </c>
       <c r="H2" t="n">
-        <v>17506662.77748831</v>
+        <v>21545880.90259073</v>
       </c>
       <c r="I2" t="n">
-        <v>18598863.27129653</v>
+        <v>22229315.80659621</v>
       </c>
       <c r="J2" t="n">
-        <v>19032698.25570096</v>
+        <v>22620559.08287821</v>
       </c>
       <c r="K2" t="n">
-        <v>18530013.7333146</v>
+        <v>20938423.31940486</v>
       </c>
       <c r="L2" t="n">
-        <v>16284191.1860291</v>
+        <v>22589402.74936243</v>
       </c>
       <c r="M2" t="n">
-        <v>17376391.67983731</v>
+        <v>23272837.65336791</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12986976.62698893</v>
+        <v>9299376.715568999</v>
       </c>
       <c r="C3" t="n">
-        <v>13289501.02453696</v>
+        <v>9781887.876009826</v>
       </c>
       <c r="D3" t="n">
-        <v>13985486.33738565</v>
+        <v>10050887.63244207</v>
       </c>
       <c r="E3" t="n">
-        <v>14462967.44199819</v>
+        <v>11150204.20690765</v>
       </c>
       <c r="F3" t="n">
-        <v>16255500.02173526</v>
+        <v>11410729.60411647</v>
       </c>
       <c r="G3" t="n">
-        <v>16558024.41928329</v>
+        <v>11893240.7645573</v>
       </c>
       <c r="H3" t="n">
-        <v>17254009.73213198</v>
+        <v>12162240.52098954</v>
       </c>
       <c r="I3" t="n">
-        <v>17731490.83674452</v>
+        <v>13261557.09545513</v>
       </c>
       <c r="J3" t="n">
-        <v>19524023.41648159</v>
+        <v>13522082.49266394</v>
       </c>
       <c r="K3" t="n">
-        <v>19826547.81402963</v>
+        <v>14004593.65310477</v>
       </c>
       <c r="L3" t="n">
-        <v>20522533.12687832</v>
+        <v>14273593.40953702</v>
       </c>
       <c r="M3" t="n">
-        <v>21000014.23149085</v>
+        <v>15372909.9840026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4966656.897149984</v>
+        <v>11780900.05051235</v>
       </c>
       <c r="C4" t="n">
-        <v>5125707.41384164</v>
+        <v>11954989.63223098</v>
       </c>
       <c r="D4" t="n">
-        <v>5243784.712364305</v>
+        <v>12367449.86768191</v>
       </c>
       <c r="E4" t="n">
-        <v>5521791.168241891</v>
+        <v>12582077.66366597</v>
       </c>
       <c r="F4" t="n">
-        <v>5380549.267847121</v>
+        <v>12762647.45138004</v>
       </c>
       <c r="G4" t="n">
-        <v>5539599.784538777</v>
+        <v>12936737.03309867</v>
       </c>
       <c r="H4" t="n">
-        <v>5657677.083061442</v>
+        <v>13349197.26854961</v>
       </c>
       <c r="I4" t="n">
-        <v>5935683.538939028</v>
+        <v>13563825.06453366</v>
       </c>
       <c r="J4" t="n">
-        <v>5794441.638544258</v>
+        <v>13744394.85224773</v>
       </c>
       <c r="K4" t="n">
-        <v>5953492.155235914</v>
+        <v>13918484.43396636</v>
       </c>
       <c r="L4" t="n">
-        <v>6071569.453758579</v>
+        <v>14330944.6694173</v>
       </c>
       <c r="M4" t="n">
-        <v>6349575.909636165</v>
+        <v>14545572.46540136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3938536.655759433</v>
+        <v>25436720.23153005</v>
       </c>
       <c r="C5" t="n">
-        <v>5486829.782720343</v>
+        <v>21127075.832687</v>
       </c>
       <c r="D5" t="n">
-        <v>7052236.461502094</v>
+        <v>24910471.52685127</v>
       </c>
       <c r="E5" t="n">
-        <v>8663687.457585759</v>
+        <v>25880786.58500358</v>
       </c>
       <c r="F5" t="n">
-        <v>10239863.11334519</v>
+        <v>29786214.07370401</v>
       </c>
       <c r="G5" t="n">
-        <v>11788156.2403061</v>
+        <v>25476569.67486096</v>
       </c>
       <c r="H5" t="n">
-        <v>13353562.91908785</v>
+        <v>29259965.36902523</v>
       </c>
       <c r="I5" t="n">
-        <v>14965013.91517152</v>
+        <v>30230280.42717755</v>
       </c>
       <c r="J5" t="n">
-        <v>16541189.57093095</v>
+        <v>34135707.91587798</v>
       </c>
       <c r="K5" t="n">
-        <v>18089482.69789186</v>
+        <v>29826063.51703493</v>
       </c>
       <c r="L5" t="n">
-        <v>19654889.37667361</v>
+        <v>33609459.21119919</v>
       </c>
       <c r="M5" t="n">
-        <v>21266340.37275727</v>
+        <v>34579774.26935151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7626715.835581658</v>
+        <v>2158085.22151541</v>
       </c>
       <c r="C6" t="n">
-        <v>9695629.809398619</v>
+        <v>3361795.284344732</v>
       </c>
       <c r="D6" t="n">
-        <v>7174959.994922394</v>
+        <v>2124642.910507578</v>
       </c>
       <c r="E6" t="n">
-        <v>8862615.95058666</v>
+        <v>3299181.302557294</v>
       </c>
       <c r="F6" t="n">
-        <v>8203744.966448111</v>
+        <v>2244301.803264167</v>
       </c>
       <c r="G6" t="n">
-        <v>10272658.94026507</v>
+        <v>3448011.866093489</v>
       </c>
       <c r="H6" t="n">
-        <v>7751989.125788847</v>
+        <v>2210859.492256335</v>
       </c>
       <c r="I6" t="n">
-        <v>9439645.081453113</v>
+        <v>3385397.884306052</v>
       </c>
       <c r="J6" t="n">
-        <v>8780774.097314565</v>
+        <v>2330518.385012925</v>
       </c>
       <c r="K6" t="n">
-        <v>10849688.07113153</v>
+        <v>3534228.447842247</v>
       </c>
       <c r="L6" t="n">
-        <v>8329018.2566553</v>
+        <v>2297076.074005093</v>
       </c>
       <c r="M6" t="n">
-        <v>10016674.21231957</v>
+        <v>3471614.466054809</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2527649.428662306</v>
+        <v>8451300.527962346</v>
       </c>
       <c r="C7" t="n">
-        <v>3221708.436345866</v>
+        <v>8497392.357581565</v>
       </c>
       <c r="D7" t="n">
-        <v>2236630.922551616</v>
+        <v>8965745.224729015</v>
       </c>
       <c r="E7" t="n">
-        <v>3127487.023969151</v>
+        <v>9211559.291227285</v>
       </c>
       <c r="F7" t="n">
-        <v>2943756.782091113</v>
+        <v>9164823.41829079</v>
       </c>
       <c r="G7" t="n">
-        <v>3637815.789774674</v>
+        <v>9210915.24791001</v>
       </c>
       <c r="H7" t="n">
-        <v>2652738.275980423</v>
+        <v>9679268.115057459</v>
       </c>
       <c r="I7" t="n">
-        <v>3543594.377397958</v>
+        <v>9925082.181555729</v>
       </c>
       <c r="J7" t="n">
-        <v>3359864.13551992</v>
+        <v>9878346.308619235</v>
       </c>
       <c r="K7" t="n">
-        <v>4053923.143203481</v>
+        <v>9924438.138238454</v>
       </c>
       <c r="L7" t="n">
-        <v>3068845.62940923</v>
+        <v>10392791.0053859</v>
       </c>
       <c r="M7" t="n">
-        <v>3959701.730826765</v>
+        <v>10638605.07188417</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584209.383140286</v>
+        <v>18940958.3700445</v>
       </c>
       <c r="C8" t="n">
-        <v>1468859.971197307</v>
+        <v>15397835.20718255</v>
       </c>
       <c r="D8" t="n">
-        <v>1127899.286804136</v>
+        <v>17368348.27396472</v>
       </c>
       <c r="E8" t="n">
-        <v>1415790.459737995</v>
+        <v>18279567.31239689</v>
       </c>
       <c r="F8" t="n">
-        <v>1670827.184710789</v>
+        <v>19149966.10275939</v>
       </c>
       <c r="G8" t="n">
-        <v>1555477.77276781</v>
+        <v>15606842.93989744</v>
       </c>
       <c r="H8" t="n">
-        <v>1214517.088374639</v>
+        <v>17577356.00667961</v>
       </c>
       <c r="I8" t="n">
-        <v>1502408.261308498</v>
+        <v>18488575.04511178</v>
       </c>
       <c r="J8" t="n">
-        <v>1757444.986281292</v>
+        <v>19358973.83547428</v>
       </c>
       <c r="K8" t="n">
-        <v>1642095.574338313</v>
+        <v>15815850.67261234</v>
       </c>
       <c r="L8" t="n">
-        <v>1301134.889945142</v>
+        <v>17786363.7393945</v>
       </c>
       <c r="M8" t="n">
-        <v>1589026.062879001</v>
+        <v>18697582.77782667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2749413.803346417</v>
+        <v>27837658.51308951</v>
       </c>
       <c r="C9" t="n">
-        <v>2794368.694499281</v>
+        <v>25305351.9135105</v>
       </c>
       <c r="D9" t="n">
-        <v>2924233.360595619</v>
+        <v>26855689.53374061</v>
       </c>
       <c r="E9" t="n">
-        <v>2867149.309037443</v>
+        <v>27023077.03690231</v>
       </c>
       <c r="F9" t="n">
-        <v>2978541.412784159</v>
+        <v>29852042.93569288</v>
       </c>
       <c r="G9" t="n">
-        <v>3023496.303937022</v>
+        <v>27319736.33611387</v>
       </c>
       <c r="H9" t="n">
-        <v>3153360.970033361</v>
+        <v>28870073.95634397</v>
       </c>
       <c r="I9" t="n">
-        <v>3096276.918475185</v>
+        <v>29037461.45950568</v>
       </c>
       <c r="J9" t="n">
-        <v>3207669.0222219</v>
+        <v>31866427.35829625</v>
       </c>
       <c r="K9" t="n">
-        <v>3252623.913374763</v>
+        <v>29334120.75871724</v>
       </c>
       <c r="L9" t="n">
-        <v>3382488.579471102</v>
+        <v>30884458.37894734</v>
       </c>
       <c r="M9" t="n">
-        <v>3325404.527912926</v>
+        <v>31051845.88210905</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5303538.311002593</v>
+        <v>27728360.73584124</v>
       </c>
       <c r="C10" t="n">
-        <v>6136590.734731668</v>
+        <v>32873028.98726145</v>
       </c>
       <c r="D10" t="n">
-        <v>4984569.976528849</v>
+        <v>38010268.82503956</v>
       </c>
       <c r="E10" t="n">
-        <v>5356969.003149259</v>
+        <v>44057722.09829146</v>
       </c>
       <c r="F10" t="n">
-        <v>6046164.544971748</v>
+        <v>49639648.12936578</v>
       </c>
       <c r="G10" t="n">
-        <v>6879216.968700823</v>
+        <v>54784316.38078598</v>
       </c>
       <c r="H10" t="n">
-        <v>5727196.210498004</v>
+        <v>59921556.21856409</v>
       </c>
       <c r="I10" t="n">
-        <v>6099595.237118415</v>
+        <v>65969009.49181598</v>
       </c>
       <c r="J10" t="n">
-        <v>6788790.778940904</v>
+        <v>71550935.5228903</v>
       </c>
       <c r="K10" t="n">
-        <v>7621843.202669979</v>
+        <v>76695603.77431051</v>
       </c>
       <c r="L10" t="n">
-        <v>6469822.44446716</v>
+        <v>81832843.61208861</v>
       </c>
       <c r="M10" t="n">
-        <v>6842221.47108757</v>
+        <v>87880296.88534051</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4001118.802275176</v>
+        <v>15274150.74344416</v>
       </c>
       <c r="C11" t="n">
-        <v>3079565.454329523</v>
+        <v>15461905.07290859</v>
       </c>
       <c r="D11" t="n">
-        <v>4504817.598434096</v>
+        <v>16479136.73171686</v>
       </c>
       <c r="E11" t="n">
-        <v>3135387.076909289</v>
+        <v>16611756.31631754</v>
       </c>
       <c r="F11" t="n">
-        <v>4323268.328274218</v>
+        <v>16547003.77099857</v>
       </c>
       <c r="G11" t="n">
-        <v>3401714.980328566</v>
+        <v>16734758.100463</v>
       </c>
       <c r="H11" t="n">
-        <v>4826967.124433139</v>
+        <v>17751989.75927127</v>
       </c>
       <c r="I11" t="n">
-        <v>3457536.602908332</v>
+        <v>17884609.34387195</v>
       </c>
       <c r="J11" t="n">
-        <v>4645417.854273262</v>
+        <v>17819856.79855298</v>
       </c>
       <c r="K11" t="n">
-        <v>3723864.50632761</v>
+        <v>18007611.12801741</v>
       </c>
       <c r="L11" t="n">
-        <v>5149116.650432182</v>
+        <v>19024842.78682568</v>
       </c>
       <c r="M11" t="n">
-        <v>3779686.128907375</v>
+        <v>19157462.37142636</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>642425.5549768268</v>
+        <v>34054809.12265179</v>
       </c>
       <c r="C12" t="n">
-        <v>347965.5544854238</v>
+        <v>34569610.49928136</v>
       </c>
       <c r="D12" t="n">
-        <v>126462.5631154624</v>
+        <v>38215597.78079256</v>
       </c>
       <c r="E12" t="n">
-        <v>258794.8578598311</v>
+        <v>39213358.2235766</v>
       </c>
       <c r="F12" t="n">
-        <v>553081.2200491154</v>
+        <v>34790535.22931535</v>
       </c>
       <c r="G12" t="n">
-        <v>258621.2195577125</v>
+        <v>35305336.60594492</v>
       </c>
       <c r="H12" t="n">
-        <v>37118.22818775097</v>
+        <v>38951323.88745612</v>
       </c>
       <c r="I12" t="n">
-        <v>169450.5229321197</v>
+        <v>39949084.33024015</v>
       </c>
       <c r="J12" t="n">
-        <v>463736.8851214039</v>
+        <v>35526261.3359789</v>
       </c>
       <c r="K12" t="n">
-        <v>169276.8846300011</v>
+        <v>36041062.71260847</v>
       </c>
       <c r="L12" t="n">
-        <v>-52226.10673996044</v>
+        <v>39687049.99411967</v>
       </c>
       <c r="M12" t="n">
-        <v>80106.18800440831</v>
+        <v>40684810.43690371</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1519065.839168587</v>
+        <v>37979930.77147055</v>
       </c>
       <c r="C13" t="n">
-        <v>1638431.189486184</v>
+        <v>34745287.59777366</v>
       </c>
       <c r="D13" t="n">
-        <v>1845619.752417828</v>
+        <v>38860726.026967</v>
       </c>
       <c r="E13" t="n">
-        <v>1962436.751920986</v>
+        <v>38671491.14088775</v>
       </c>
       <c r="F13" t="n">
-        <v>2200807.016907304</v>
+        <v>38372939.47249225</v>
       </c>
       <c r="G13" t="n">
-        <v>2320172.367224901</v>
+        <v>35138296.29879536</v>
       </c>
       <c r="H13" t="n">
-        <v>2527360.930156544</v>
+        <v>39253734.72798871</v>
       </c>
       <c r="I13" t="n">
-        <v>2644177.929659703</v>
+        <v>39064499.84190945</v>
       </c>
       <c r="J13" t="n">
-        <v>2882548.194646021</v>
+        <v>38765948.17351395</v>
       </c>
       <c r="K13" t="n">
-        <v>3001913.544963618</v>
+        <v>35531304.99981707</v>
       </c>
       <c r="L13" t="n">
-        <v>3209102.107895261</v>
+        <v>39646743.42901041</v>
       </c>
       <c r="M13" t="n">
-        <v>3325919.10739842</v>
+        <v>39457508.54293115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>132409.4487727551</v>
+        <v>3141183.964057764</v>
       </c>
       <c r="C14" t="n">
-        <v>-30854.87340877191</v>
+        <v>4212525.184114378</v>
       </c>
       <c r="D14" t="n">
-        <v>-390994.9729821142</v>
+        <v>5341971.303013459</v>
       </c>
       <c r="E14" t="n">
-        <v>134884.45548134</v>
+        <v>6483305.41123941</v>
       </c>
       <c r="F14" t="n">
-        <v>137584.0482775866</v>
+        <v>7584618.610181601</v>
       </c>
       <c r="G14" t="n">
-        <v>-25680.2739039404</v>
+        <v>8655959.830238216</v>
       </c>
       <c r="H14" t="n">
-        <v>-385820.3734772827</v>
+        <v>9785405.949137298</v>
       </c>
       <c r="I14" t="n">
-        <v>140059.0549861715</v>
+        <v>10926740.05736325</v>
       </c>
       <c r="J14" t="n">
-        <v>142758.6477824181</v>
+        <v>12028053.25630544</v>
       </c>
       <c r="K14" t="n">
-        <v>-20505.67439910889</v>
+        <v>13099394.47636206</v>
       </c>
       <c r="L14" t="n">
-        <v>-380645.7739724512</v>
+        <v>14228840.59526114</v>
       </c>
       <c r="M14" t="n">
-        <v>145233.654491003</v>
+        <v>15370174.70348709</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>918281.8940463255</v>
+        <v>4173964.475560992</v>
       </c>
       <c r="C15" t="n">
-        <v>1030062.012658391</v>
+        <v>3719850.877802392</v>
       </c>
       <c r="D15" t="n">
-        <v>1050031.006012743</v>
+        <v>3814347.951105107</v>
       </c>
       <c r="E15" t="n">
-        <v>1119528.746013512</v>
+        <v>4098012.959335222</v>
       </c>
       <c r="F15" t="n">
-        <v>1207789.478625744</v>
+        <v>4546305.589499008</v>
       </c>
       <c r="G15" t="n">
-        <v>1319569.597237809</v>
+        <v>4092191.991740406</v>
       </c>
       <c r="H15" t="n">
-        <v>1339538.590592162</v>
+        <v>4186689.065043121</v>
       </c>
       <c r="I15" t="n">
-        <v>1409036.330592931</v>
+        <v>4470354.073273237</v>
       </c>
       <c r="J15" t="n">
-        <v>1497297.063205163</v>
+        <v>4918646.703437022</v>
       </c>
       <c r="K15" t="n">
-        <v>1609077.181817228</v>
+        <v>4464533.105678421</v>
       </c>
       <c r="L15" t="n">
-        <v>1629046.17517158</v>
+        <v>4559030.178981136</v>
       </c>
       <c r="M15" t="n">
-        <v>1698543.915172349</v>
+        <v>4842695.187211252</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1281469.68094348</v>
+        <v>11443481.93449702</v>
       </c>
       <c r="C16" t="n">
-        <v>1478935.465146969</v>
+        <v>11677570.45500124</v>
       </c>
       <c r="D16" t="n">
-        <v>1581860.437700758</v>
+        <v>11178882.59271898</v>
       </c>
       <c r="E16" t="n">
-        <v>1747678.674908537</v>
+        <v>11953483.16402377</v>
       </c>
       <c r="F16" t="n">
-        <v>1895986.194863529</v>
+        <v>12301434.54728703</v>
       </c>
       <c r="G16" t="n">
-        <v>2093451.979067018</v>
+        <v>12535523.06779124</v>
       </c>
       <c r="H16" t="n">
-        <v>2196376.951620807</v>
+        <v>12036835.20550898</v>
       </c>
       <c r="I16" t="n">
-        <v>2362195.188828587</v>
+        <v>12811435.77681377</v>
       </c>
       <c r="J16" t="n">
-        <v>2510502.708783579</v>
+        <v>13159387.16007703</v>
       </c>
       <c r="K16" t="n">
-        <v>2707968.492987068</v>
+        <v>13393475.68058125</v>
       </c>
       <c r="L16" t="n">
-        <v>2810893.465540858</v>
+        <v>12894787.81829898</v>
       </c>
       <c r="M16" t="n">
-        <v>2976711.702748637</v>
+        <v>13669388.38960377</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7336942.371398126</v>
+        <v>4795107.251204938</v>
       </c>
       <c r="C17" t="n">
-        <v>7973332.246172438</v>
+        <v>4757898.410203951</v>
       </c>
       <c r="D17" t="n">
-        <v>9012713.552778244</v>
+        <v>5193897.607276057</v>
       </c>
       <c r="E17" t="n">
-        <v>9550531.981623961</v>
+        <v>5219135.921120504</v>
       </c>
       <c r="F17" t="n">
-        <v>10518933.56258174</v>
+        <v>5204000.155863699</v>
       </c>
       <c r="G17" t="n">
-        <v>11155323.43735605</v>
+        <v>5166791.314862712</v>
       </c>
       <c r="H17" t="n">
-        <v>12194704.74396186</v>
+        <v>5602790.511934818</v>
       </c>
       <c r="I17" t="n">
-        <v>12732523.17280757</v>
+        <v>5628028.825779265</v>
       </c>
       <c r="J17" t="n">
-        <v>13700924.75376535</v>
+        <v>5612893.060522459</v>
       </c>
       <c r="K17" t="n">
-        <v>14337314.62853966</v>
+        <v>5575684.219521473</v>
       </c>
       <c r="L17" t="n">
-        <v>15376695.93514547</v>
+        <v>6011683.416593579</v>
       </c>
       <c r="M17" t="n">
-        <v>15914514.36399118</v>
+        <v>6036921.730438026</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1446873.924950294</v>
+        <v>3507898.843623219</v>
       </c>
       <c r="C18" t="n">
-        <v>2003357.349083366</v>
+        <v>3819526.18010835</v>
       </c>
       <c r="D18" t="n">
-        <v>1202770.877057012</v>
+        <v>3735982.943914494</v>
       </c>
       <c r="E18" t="n">
-        <v>1414525.765650741</v>
+        <v>3548216.516990136</v>
       </c>
       <c r="F18" t="n">
-        <v>1525777.344160746</v>
+        <v>3783225.308960236</v>
       </c>
       <c r="G18" t="n">
-        <v>2082260.768293818</v>
+        <v>4094852.645445367</v>
       </c>
       <c r="H18" t="n">
-        <v>1281674.296267464</v>
+        <v>4011309.409251512</v>
       </c>
       <c r="I18" t="n">
-        <v>1493429.184861192</v>
+        <v>3823542.982327154</v>
       </c>
       <c r="J18" t="n">
-        <v>1604680.763371198</v>
+        <v>4058551.774297254</v>
       </c>
       <c r="K18" t="n">
-        <v>2161164.18750427</v>
+        <v>4370179.110782385</v>
       </c>
       <c r="L18" t="n">
-        <v>1360577.715477916</v>
+        <v>4286635.87458853</v>
       </c>
       <c r="M18" t="n">
-        <v>1572332.604071644</v>
+        <v>4098869.447664172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>38638.16400955453</v>
+        <v>5221183.810253666</v>
       </c>
       <c r="C19" t="n">
-        <v>-3960.299323765645</v>
+        <v>3663697.67193536</v>
       </c>
       <c r="D19" t="n">
-        <v>80871.42505278086</v>
+        <v>5009840.850693678</v>
       </c>
       <c r="E19" t="n">
-        <v>-27056.1084646889</v>
+        <v>5545437.126814755</v>
       </c>
       <c r="F19" t="n">
-        <v>11837.80253371939</v>
+        <v>5204743.307910745</v>
       </c>
       <c r="G19" t="n">
-        <v>-30760.66079960079</v>
+        <v>3647257.169592439</v>
       </c>
       <c r="H19" t="n">
-        <v>54071.06357694571</v>
+        <v>4993400.348350758</v>
       </c>
       <c r="I19" t="n">
-        <v>-53856.46994052404</v>
+        <v>5528996.624471834</v>
       </c>
       <c r="J19" t="n">
-        <v>-14962.55894211575</v>
+        <v>5188302.805567824</v>
       </c>
       <c r="K19" t="n">
-        <v>-57561.02227543593</v>
+        <v>3630816.667249518</v>
       </c>
       <c r="L19" t="n">
-        <v>27270.70210111058</v>
+        <v>4976959.846007837</v>
       </c>
       <c r="M19" t="n">
-        <v>-80656.83141635917</v>
+        <v>5512556.122128913</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1757886.820704922</v>
+        <v>1863210.66141583</v>
       </c>
       <c r="C20" t="n">
-        <v>2123958.307054196</v>
+        <v>1987530.104315385</v>
       </c>
       <c r="D20" t="n">
-        <v>1455418.414935981</v>
+        <v>2827537.631384035</v>
       </c>
       <c r="E20" t="n">
-        <v>1774680.490603921</v>
+        <v>2671641.784498082</v>
       </c>
       <c r="F20" t="n">
-        <v>1676283.873676304</v>
+        <v>1846798.267607042</v>
       </c>
       <c r="G20" t="n">
-        <v>2042355.360025579</v>
+        <v>1971117.710506597</v>
       </c>
       <c r="H20" t="n">
-        <v>1373815.467907364</v>
+        <v>2811125.237575247</v>
       </c>
       <c r="I20" t="n">
-        <v>1693077.543575304</v>
+        <v>2655229.390689294</v>
       </c>
       <c r="J20" t="n">
-        <v>1594680.926647687</v>
+        <v>1830385.873798255</v>
       </c>
       <c r="K20" t="n">
-        <v>1960752.412996962</v>
+        <v>1954705.316697809</v>
       </c>
       <c r="L20" t="n">
-        <v>1292212.520878746</v>
+        <v>2794712.84376646</v>
       </c>
       <c r="M20" t="n">
-        <v>1611474.596546686</v>
+        <v>2638816.996880506</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1337206.264224063</v>
+        <v>4314444.796338333</v>
       </c>
       <c r="C21" t="n">
-        <v>1359827.482152753</v>
+        <v>4110070.732595435</v>
       </c>
       <c r="D21" t="n">
-        <v>1311916.722264605</v>
+        <v>4477954.938282491</v>
       </c>
       <c r="E21" t="n">
-        <v>1588249.438678669</v>
+        <v>4226457.84241467</v>
       </c>
       <c r="F21" t="n">
-        <v>1374183.378918851</v>
+        <v>4452732.41945423</v>
       </c>
       <c r="G21" t="n">
-        <v>1396804.596847541</v>
+        <v>4248358.355711333</v>
       </c>
       <c r="H21" t="n">
-        <v>1348893.836959393</v>
+        <v>4616242.561398388</v>
       </c>
       <c r="I21" t="n">
-        <v>1625226.553373457</v>
+        <v>4364745.465530567</v>
       </c>
       <c r="J21" t="n">
-        <v>1411160.49361364</v>
+        <v>4591020.042570127</v>
       </c>
       <c r="K21" t="n">
-        <v>1433781.71154233</v>
+        <v>4386645.97882723</v>
       </c>
       <c r="L21" t="n">
-        <v>1385870.951654182</v>
+        <v>4754530.184514285</v>
       </c>
       <c r="M21" t="n">
-        <v>1662203.668068245</v>
+        <v>4503033.088646464</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>752296.7276751148</v>
+        <v>11273525.40085072</v>
       </c>
       <c r="C22" t="n">
-        <v>785595.2657454343</v>
+        <v>10317057.74478786</v>
       </c>
       <c r="D22" t="n">
-        <v>635633.4739261626</v>
+        <v>12013695.27658989</v>
       </c>
       <c r="E22" t="n">
-        <v>500018.0107414366</v>
+        <v>11285695.87305263</v>
       </c>
       <c r="F22" t="n">
-        <v>814987.7596037569</v>
+        <v>11831903.21769703</v>
       </c>
       <c r="G22" t="n">
-        <v>848286.2976740765</v>
+        <v>10875435.56163417</v>
       </c>
       <c r="H22" t="n">
-        <v>698324.5058548048</v>
+        <v>12572073.09343621</v>
       </c>
       <c r="I22" t="n">
-        <v>562709.0426700788</v>
+        <v>11844073.68989894</v>
       </c>
       <c r="J22" t="n">
-        <v>877678.7915323991</v>
+        <v>12390281.03454334</v>
       </c>
       <c r="K22" t="n">
-        <v>910977.3296027187</v>
+        <v>11433813.37848048</v>
       </c>
       <c r="L22" t="n">
-        <v>761015.537783447</v>
+        <v>13130450.91028252</v>
       </c>
       <c r="M22" t="n">
-        <v>625400.074598721</v>
+        <v>12402451.50674525</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-5600.87278179459</v>
+        <v>8802933.922778497</v>
       </c>
       <c r="C23" t="n">
-        <v>44641.10975436072</v>
+        <v>6921623.722045878</v>
       </c>
       <c r="D23" t="n">
-        <v>-18414.29527343726</v>
+        <v>7434699.283423615</v>
       </c>
       <c r="E23" t="n">
-        <v>5888.860487244088</v>
+        <v>7299669.416980364</v>
       </c>
       <c r="F23" t="n">
-        <v>-4973.588450687511</v>
+        <v>8879320.890842916</v>
       </c>
       <c r="G23" t="n">
-        <v>45268.39408546779</v>
+        <v>6998010.690110298</v>
       </c>
       <c r="H23" t="n">
-        <v>-17787.01094233018</v>
+        <v>7511086.251488035</v>
       </c>
       <c r="I23" t="n">
-        <v>6516.144818351167</v>
+        <v>7376056.385044784</v>
       </c>
       <c r="J23" t="n">
-        <v>-4346.304119580432</v>
+        <v>8955707.858907336</v>
       </c>
       <c r="K23" t="n">
-        <v>45895.67841657488</v>
+        <v>7074397.658174718</v>
       </c>
       <c r="L23" t="n">
-        <v>-17159.7266112231</v>
+        <v>7587473.219552455</v>
       </c>
       <c r="M23" t="n">
-        <v>7143.429149458247</v>
+        <v>7452443.353109204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11989178.45655289</v>
+        <v>10162614.94072921</v>
       </c>
       <c r="C24" t="n">
-        <v>12110000.84039911</v>
+        <v>8233616.408536203</v>
       </c>
       <c r="D24" t="n">
-        <v>10514755.06236017</v>
+        <v>9471527.136191564</v>
       </c>
       <c r="E24" t="n">
-        <v>11439600.02994244</v>
+        <v>9767449.89055525</v>
       </c>
       <c r="F24" t="n">
-        <v>12246016.06767934</v>
+        <v>10719846.01659245</v>
       </c>
       <c r="G24" t="n">
-        <v>12366838.45152556</v>
+        <v>8790847.484399438</v>
       </c>
       <c r="H24" t="n">
-        <v>10771592.67348663</v>
+        <v>10028758.2120548</v>
       </c>
       <c r="I24" t="n">
-        <v>11696437.6410689</v>
+        <v>10324680.96641848</v>
       </c>
       <c r="J24" t="n">
-        <v>12502853.67880579</v>
+        <v>11277077.09245568</v>
       </c>
       <c r="K24" t="n">
-        <v>12623676.06265201</v>
+        <v>9348078.560262673</v>
       </c>
       <c r="L24" t="n">
-        <v>11028430.28461308</v>
+        <v>10585989.28791803</v>
       </c>
       <c r="M24" t="n">
-        <v>11953275.25219535</v>
+        <v>10881912.04228172</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2774627.661416746</v>
+        <v>5217819.041000271</v>
       </c>
       <c r="C25" t="n">
-        <v>2905240.639737076</v>
+        <v>4581531.983732278</v>
       </c>
       <c r="D25" t="n">
-        <v>2360456.133082055</v>
+        <v>4969326.474927945</v>
       </c>
       <c r="E25" t="n">
-        <v>3002567.753342852</v>
+        <v>5586153.607143578</v>
       </c>
       <c r="F25" t="n">
-        <v>2885249.905298064</v>
+        <v>5403668.304339385</v>
       </c>
       <c r="G25" t="n">
-        <v>3015862.883618395</v>
+        <v>4767381.247071392</v>
       </c>
       <c r="H25" t="n">
-        <v>2471078.376963374</v>
+        <v>5155175.738267059</v>
       </c>
       <c r="I25" t="n">
-        <v>3113189.997224171</v>
+        <v>5772002.870482692</v>
       </c>
       <c r="J25" t="n">
-        <v>2995872.149179383</v>
+        <v>5589517.567678498</v>
       </c>
       <c r="K25" t="n">
-        <v>3126485.127499714</v>
+        <v>4953230.510410505</v>
       </c>
       <c r="L25" t="n">
-        <v>2581700.620844693</v>
+        <v>5341025.001606172</v>
       </c>
       <c r="M25" t="n">
-        <v>3223812.241105489</v>
+        <v>5957852.133821805</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10085470.70647159</v>
+        <v>11704103.45441499</v>
       </c>
       <c r="C26" t="n">
-        <v>11321918.6407455</v>
+        <v>11015375.41365449</v>
       </c>
       <c r="D26" t="n">
-        <v>10613046.83677779</v>
+        <v>11534233.06539864</v>
       </c>
       <c r="E26" t="n">
-        <v>11198388.91020865</v>
+        <v>11064462.26695468</v>
       </c>
       <c r="F26" t="n">
-        <v>10969350.21288126</v>
+        <v>12248290.31866012</v>
       </c>
       <c r="G26" t="n">
-        <v>12205798.14715517</v>
+        <v>11559562.27789962</v>
       </c>
       <c r="H26" t="n">
-        <v>11496926.34318746</v>
+        <v>12078419.92964377</v>
       </c>
       <c r="I26" t="n">
-        <v>12082268.41661832</v>
+        <v>11608649.13119982</v>
       </c>
       <c r="J26" t="n">
-        <v>11853229.71929094</v>
+        <v>12792477.18290525</v>
       </c>
       <c r="K26" t="n">
-        <v>13089677.65356485</v>
+        <v>12103749.14214475</v>
       </c>
       <c r="L26" t="n">
-        <v>12380805.84959714</v>
+        <v>12622606.7938889</v>
       </c>
       <c r="M26" t="n">
-        <v>12966147.923028</v>
+        <v>12152835.99544495</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14664663.44478345</v>
+        <v>4817902.062214488</v>
       </c>
       <c r="C27" t="n">
-        <v>16520834.75545909</v>
+        <v>4190861.078757506</v>
       </c>
       <c r="D27" t="n">
-        <v>14500029.83048289</v>
+        <v>4512887.860007782</v>
       </c>
       <c r="E27" t="n">
-        <v>15286995.36033369</v>
+        <v>5015900.612208568</v>
       </c>
       <c r="F27" t="n">
-        <v>15822254.76047968</v>
+        <v>5000978.802297367</v>
       </c>
       <c r="G27" t="n">
-        <v>17678426.07115532</v>
+        <v>4373937.818840384</v>
       </c>
       <c r="H27" t="n">
-        <v>15657621.14617912</v>
+        <v>4695964.60009066</v>
       </c>
       <c r="I27" t="n">
-        <v>16444586.67602992</v>
+        <v>5198977.352291447</v>
       </c>
       <c r="J27" t="n">
-        <v>16979846.07617591</v>
+        <v>5184055.542380245</v>
       </c>
       <c r="K27" t="n">
-        <v>18836017.38685155</v>
+        <v>4557014.558923263</v>
       </c>
       <c r="L27" t="n">
-        <v>16815212.46187536</v>
+        <v>4879041.340173539</v>
       </c>
       <c r="M27" t="n">
-        <v>17602177.99172616</v>
+        <v>5382054.092374326</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15913525.6199197</v>
+        <v>12416676.29970776</v>
       </c>
       <c r="C28" t="n">
-        <v>18108997.26714672</v>
+        <v>9523435.092604784</v>
       </c>
       <c r="D28" t="n">
-        <v>19817866.8814082</v>
+        <v>11354089.1719917</v>
       </c>
       <c r="E28" t="n">
-        <v>21589020.99100504</v>
+        <v>12216338.35862168</v>
       </c>
       <c r="F28" t="n">
-        <v>23693193.68258057</v>
+        <v>13079544.84166939</v>
       </c>
       <c r="G28" t="n">
-        <v>25888665.32980759</v>
+        <v>10186303.63456642</v>
       </c>
       <c r="H28" t="n">
-        <v>27597534.94406908</v>
+        <v>12016957.71395333</v>
       </c>
       <c r="I28" t="n">
-        <v>29368689.05366591</v>
+        <v>12879206.90058332</v>
       </c>
       <c r="J28" t="n">
-        <v>31472861.74524144</v>
+        <v>13742413.38363102</v>
       </c>
       <c r="K28" t="n">
-        <v>33668333.39246847</v>
+        <v>10849172.17652805</v>
       </c>
       <c r="L28" t="n">
-        <v>35377203.00672995</v>
+        <v>12679826.25591497</v>
       </c>
       <c r="M28" t="n">
-        <v>37148357.11632679</v>
+        <v>13542075.44254495</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17357899.90706348</v>
+        <v>2505684.035209206</v>
       </c>
       <c r="C29" t="n">
-        <v>17853369.88518187</v>
+        <v>2589094.286681216</v>
       </c>
       <c r="D29" t="n">
-        <v>18663105.64629309</v>
+        <v>2667493.696362209</v>
       </c>
       <c r="E29" t="n">
-        <v>20235361.70644835</v>
+        <v>2816979.918256107</v>
       </c>
       <c r="F29" t="n">
-        <v>21067341.42308208</v>
+        <v>2915303.394278168</v>
       </c>
       <c r="G29" t="n">
-        <v>21562811.40120047</v>
+        <v>2998713.645750178</v>
       </c>
       <c r="H29" t="n">
-        <v>22372547.16231169</v>
+        <v>3077113.05543117</v>
       </c>
       <c r="I29" t="n">
-        <v>23944803.22246695</v>
+        <v>3226599.277325069</v>
       </c>
       <c r="J29" t="n">
-        <v>24776782.93910068</v>
+        <v>3324922.75334713</v>
       </c>
       <c r="K29" t="n">
-        <v>25272252.91721907</v>
+        <v>3408333.00481914</v>
       </c>
       <c r="L29" t="n">
-        <v>26081988.67833029</v>
+        <v>3486732.414500132</v>
       </c>
       <c r="M29" t="n">
-        <v>27654244.73848555</v>
+        <v>3636218.63639403</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>38255000.35579132</v>
+        <v>809289.5838113059</v>
       </c>
       <c r="C30" t="n">
-        <v>33845656.7300413</v>
+        <v>703640.7356819357</v>
       </c>
       <c r="D30" t="n">
-        <v>34360457.1452497</v>
+        <v>694172.709025779</v>
       </c>
       <c r="E30" t="n">
-        <v>38006443.48641943</v>
+        <v>736532.0810948956</v>
       </c>
       <c r="F30" t="n">
-        <v>38958502.38751721</v>
+        <v>873268.4281826317</v>
       </c>
       <c r="G30" t="n">
-        <v>34549158.76176719</v>
+        <v>767619.5800532615</v>
       </c>
       <c r="H30" t="n">
-        <v>35063959.17697559</v>
+        <v>758151.5533971048</v>
       </c>
       <c r="I30" t="n">
-        <v>38709945.51814532</v>
+        <v>800510.9254662214</v>
       </c>
       <c r="J30" t="n">
-        <v>39662004.41924309</v>
+        <v>937247.2725539575</v>
       </c>
       <c r="K30" t="n">
-        <v>35252660.79349307</v>
+        <v>831598.4244245873</v>
       </c>
       <c r="L30" t="n">
-        <v>35767461.20870147</v>
+        <v>822130.3977684306</v>
       </c>
       <c r="M30" t="n">
-        <v>39413447.5498712</v>
+        <v>864489.7698375472</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37973279.72498336</v>
+        <v>720644.5890065061</v>
       </c>
       <c r="C31" t="n">
-        <v>38211006.65789978</v>
+        <v>649123.896203805</v>
       </c>
       <c r="D31" t="n">
-        <v>34976358.025058</v>
+        <v>744478.8868480066</v>
       </c>
       <c r="E31" t="n">
-        <v>39091791.25972073</v>
+        <v>785782.1503361709</v>
       </c>
       <c r="F31" t="n">
-        <v>38401059.64881694</v>
+        <v>748057.8107004052</v>
       </c>
       <c r="G31" t="n">
-        <v>38638786.58173336</v>
+        <v>676537.117897704</v>
       </c>
       <c r="H31" t="n">
-        <v>35404137.94889158</v>
+        <v>771892.1085419056</v>
       </c>
       <c r="I31" t="n">
-        <v>39519571.18355431</v>
+        <v>813195.3720300699</v>
       </c>
       <c r="J31" t="n">
-        <v>38828839.57265051</v>
+        <v>775471.0323943042</v>
       </c>
       <c r="K31" t="n">
-        <v>39066566.50556694</v>
+        <v>703950.339591603</v>
       </c>
       <c r="L31" t="n">
-        <v>35831917.87272516</v>
+        <v>799305.3302358047</v>
       </c>
       <c r="M31" t="n">
-        <v>39947351.10738789</v>
+        <v>840608.593723969</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>806089.8734849286</v>
+        <v>1954895.101433863</v>
       </c>
       <c r="C32" t="n">
-        <v>980655.0448212868</v>
+        <v>1910545.271727686</v>
       </c>
       <c r="D32" t="n">
-        <v>1146060.678570964</v>
+        <v>1976210.144283224</v>
       </c>
       <c r="E32" t="n">
-        <v>1387922.038478515</v>
+        <v>2036832.258899761</v>
       </c>
       <c r="F32" t="n">
-        <v>1556457.983747865</v>
+        <v>2119967.35941163</v>
       </c>
       <c r="G32" t="n">
-        <v>1731023.155084223</v>
+        <v>2075617.529705453</v>
       </c>
       <c r="H32" t="n">
-        <v>1896428.7888339</v>
+        <v>2141282.402260991</v>
       </c>
       <c r="I32" t="n">
-        <v>2138290.148741451</v>
+        <v>2201904.516877528</v>
       </c>
       <c r="J32" t="n">
-        <v>2306826.094010801</v>
+        <v>2285039.617389397</v>
       </c>
       <c r="K32" t="n">
-        <v>2481391.265347159</v>
+        <v>2240689.78768322</v>
       </c>
       <c r="L32" t="n">
-        <v>2646796.899096836</v>
+        <v>2306354.660238758</v>
       </c>
       <c r="M32" t="n">
-        <v>2888658.259004387</v>
+        <v>2366976.774855295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3926412.804882193</v>
+        <v>2343214.382773692</v>
       </c>
       <c r="C33" t="n">
-        <v>4213578.872163742</v>
+        <v>2270129.599421814</v>
       </c>
       <c r="D33" t="n">
-        <v>3759467.321438061</v>
+        <v>2392596.235735822</v>
       </c>
       <c r="E33" t="n">
-        <v>3853966.356813605</v>
+        <v>2483406.636496169</v>
       </c>
       <c r="F33" t="n">
-        <v>4305095.273063045</v>
+        <v>2537870.77841422</v>
       </c>
       <c r="G33" t="n">
-        <v>4592261.340344595</v>
+        <v>2464785.995062342</v>
       </c>
       <c r="H33" t="n">
-        <v>4138149.789618914</v>
+        <v>2587252.631376349</v>
       </c>
       <c r="I33" t="n">
-        <v>4232648.824994459</v>
+        <v>2678063.032136696</v>
       </c>
       <c r="J33" t="n">
-        <v>4683777.741243899</v>
+        <v>2732527.174054748</v>
       </c>
       <c r="K33" t="n">
-        <v>4970943.808525449</v>
+        <v>2659442.39070287</v>
       </c>
       <c r="L33" t="n">
-        <v>4516832.257799768</v>
+        <v>2781909.027016877</v>
       </c>
       <c r="M33" t="n">
-        <v>4611331.293175313</v>
+        <v>2872719.427777224</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10497563.09951738</v>
+        <v>2978231.816999487</v>
       </c>
       <c r="C34" t="n">
-        <v>10916079.91653319</v>
+        <v>2666969.152094739</v>
       </c>
       <c r="D34" t="n">
-        <v>11150155.76039402</v>
+        <v>2971201.225184761</v>
       </c>
       <c r="E34" t="n">
-        <v>10651449.7659169</v>
+        <v>2887375.332662219</v>
       </c>
       <c r="F34" t="n">
-        <v>11304693.66208554</v>
+        <v>3191010.148924964</v>
       </c>
       <c r="G34" t="n">
-        <v>11723210.47910134</v>
+        <v>2879747.484020217</v>
       </c>
       <c r="H34" t="n">
-        <v>11957286.32296218</v>
+        <v>3183979.557110239</v>
       </c>
       <c r="I34" t="n">
-        <v>11458580.32848506</v>
+        <v>3100153.664587697</v>
       </c>
       <c r="J34" t="n">
-        <v>12111824.2246537</v>
+        <v>3403788.480850442</v>
       </c>
       <c r="K34" t="n">
-        <v>12530341.0416695</v>
+        <v>3092525.815945695</v>
       </c>
       <c r="L34" t="n">
-        <v>12764416.88553033</v>
+        <v>3396757.889035717</v>
       </c>
       <c r="M34" t="n">
-        <v>12265710.89105321</v>
+        <v>3312931.996513175</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4712830.136818749</v>
+        <v>1556245.607935861</v>
       </c>
       <c r="C35" t="n">
-        <v>4696769.503858238</v>
+        <v>1552238.754784502</v>
       </c>
       <c r="D35" t="n">
-        <v>4659561.325779876</v>
+        <v>1612226.577287782</v>
       </c>
       <c r="E35" t="n">
-        <v>5095563.293519277</v>
+        <v>1797758.36180985</v>
       </c>
       <c r="F35" t="n">
-        <v>5109412.728429594</v>
+        <v>1686762.704155053</v>
       </c>
       <c r="G35" t="n">
-        <v>5093352.095469084</v>
+        <v>1682755.851003694</v>
       </c>
       <c r="H35" t="n">
-        <v>5056143.917390721</v>
+        <v>1742743.673506974</v>
       </c>
       <c r="I35" t="n">
-        <v>5492145.885130122</v>
+        <v>1928275.458029042</v>
       </c>
       <c r="J35" t="n">
-        <v>5505995.320040439</v>
+        <v>1817279.800374246</v>
       </c>
       <c r="K35" t="n">
-        <v>5489934.687079929</v>
+        <v>1813272.947222886</v>
       </c>
       <c r="L35" t="n">
-        <v>5452726.509001566</v>
+        <v>1873260.769726166</v>
       </c>
       <c r="M35" t="n">
-        <v>5888728.476740967</v>
+        <v>2058792.554248235</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2636007.56369616</v>
+        <v>1405043.216923101</v>
       </c>
       <c r="C36" t="n">
-        <v>2853834.419380977</v>
+        <v>1418508.859239349</v>
       </c>
       <c r="D36" t="n">
-        <v>3092593.868261101</v>
+        <v>1656945.35356352</v>
       </c>
       <c r="E36" t="n">
-        <v>2939163.95752663</v>
+        <v>1513437.449050796</v>
       </c>
       <c r="F36" t="n">
-        <v>2584054.662468533</v>
+        <v>1471644.252018563</v>
       </c>
       <c r="G36" t="n">
-        <v>2801881.51815335</v>
+        <v>1485109.894334811</v>
       </c>
       <c r="H36" t="n">
-        <v>3040640.967033474</v>
+        <v>1723546.388658982</v>
       </c>
       <c r="I36" t="n">
-        <v>2887211.056299003</v>
+        <v>1580038.484146257</v>
       </c>
       <c r="J36" t="n">
-        <v>2532101.761240906</v>
+        <v>1538245.287114024</v>
       </c>
       <c r="K36" t="n">
-        <v>2749928.616925723</v>
+        <v>1551710.929430273</v>
       </c>
       <c r="L36" t="n">
-        <v>2988688.065805847</v>
+        <v>1790147.423754443</v>
       </c>
       <c r="M36" t="n">
-        <v>2835258.155071376</v>
+        <v>1646639.519241719</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5894891.796241179</v>
+        <v>3779126.384968692</v>
       </c>
       <c r="C37" t="n">
-        <v>5191066.064928534</v>
+        <v>3279065.254215763</v>
       </c>
       <c r="D37" t="n">
-        <v>3633584.126775281</v>
+        <v>3786860.409352179</v>
       </c>
       <c r="E37" t="n">
-        <v>4979731.32261445</v>
+        <v>4228675.964979684</v>
       </c>
       <c r="F37" t="n">
-        <v>5874362.82435149</v>
+        <v>3888507.967568848</v>
       </c>
       <c r="G37" t="n">
-        <v>5170537.093038845</v>
+        <v>3388446.836815919</v>
       </c>
       <c r="H37" t="n">
-        <v>3613055.154885591</v>
+        <v>3896241.991952335</v>
       </c>
       <c r="I37" t="n">
-        <v>4959202.35072476</v>
+        <v>4338057.54757984</v>
       </c>
       <c r="J37" t="n">
-        <v>5853833.8524618</v>
+        <v>3997889.550169004</v>
       </c>
       <c r="K37" t="n">
-        <v>5150008.121149155</v>
+        <v>3497828.419416075</v>
       </c>
       <c r="L37" t="n">
-        <v>3592526.182995901</v>
+        <v>4005623.574552491</v>
       </c>
       <c r="M37" t="n">
-        <v>4938673.378835071</v>
+        <v>4447439.130179996</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3048869.503681934</v>
+        <v>3883602.954019234</v>
       </c>
       <c r="C38" t="n">
-        <v>2360017.826624625</v>
+        <v>3900730.240555286</v>
       </c>
       <c r="D38" t="n">
-        <v>2484365.963356031</v>
+        <v>4044641.960762015</v>
       </c>
       <c r="E38" t="n">
-        <v>3324411.573466895</v>
+        <v>3864951.436473234</v>
       </c>
       <c r="F38" t="n">
-        <v>3136779.506360552</v>
+        <v>4082721.212021066</v>
       </c>
       <c r="G38" t="n">
-        <v>2447927.829303243</v>
+        <v>4099848.498557118</v>
       </c>
       <c r="H38" t="n">
-        <v>2572275.966034648</v>
+        <v>4243760.218763847</v>
       </c>
       <c r="I38" t="n">
-        <v>3412321.576145513</v>
+        <v>4064069.694475065</v>
       </c>
       <c r="J38" t="n">
-        <v>3224689.50903917</v>
+        <v>4281839.470022897</v>
       </c>
       <c r="K38" t="n">
-        <v>2535837.831981861</v>
+        <v>4298966.756558949</v>
       </c>
       <c r="L38" t="n">
-        <v>2660185.968713266</v>
+        <v>4442878.476765677</v>
       </c>
       <c r="M38" t="n">
-        <v>3500231.578824131</v>
+        <v>4263187.952476895</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2778553.209209046</v>
+        <v>5310268.300123916</v>
       </c>
       <c r="C39" t="n">
-        <v>3021417.747096209</v>
+        <v>5366646.135508285</v>
       </c>
       <c r="D39" t="n">
-        <v>2817053.757698865</v>
+        <v>5697739.940863334</v>
       </c>
       <c r="E39" t="n">
-        <v>3184918.922362168</v>
+        <v>5655531.061061293</v>
       </c>
       <c r="F39" t="n">
-        <v>2806671.869374918</v>
+        <v>5756736.558069807</v>
       </c>
       <c r="G39" t="n">
-        <v>3049536.407262081</v>
+        <v>5813114.393454176</v>
       </c>
       <c r="H39" t="n">
-        <v>2845172.417864738</v>
+        <v>6144208.198809225</v>
       </c>
       <c r="I39" t="n">
-        <v>3213037.58252804</v>
+        <v>6101999.319007184</v>
       </c>
       <c r="J39" t="n">
-        <v>2834790.529540791</v>
+        <v>6203204.816015699</v>
       </c>
       <c r="K39" t="n">
-        <v>3077655.067427954</v>
+        <v>6259582.651400068</v>
       </c>
       <c r="L39" t="n">
-        <v>2873291.07803061</v>
+        <v>6590676.456755117</v>
       </c>
       <c r="M39" t="n">
-        <v>3241156.242693913</v>
+        <v>6548467.576953076</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10700669.72886353</v>
+        <v>5341063.772360289</v>
       </c>
       <c r="C40" t="n">
-        <v>11128451.20341644</v>
+        <v>5002808.838753084</v>
       </c>
       <c r="D40" t="n">
-        <v>10171984.38413156</v>
+        <v>5331712.732317792</v>
       </c>
       <c r="E40" t="n">
-        <v>11868622.7195674</v>
+        <v>5259041.934108176</v>
       </c>
       <c r="F40" t="n">
-        <v>11236888.37599524</v>
+        <v>5591264.755055291</v>
       </c>
       <c r="G40" t="n">
-        <v>11664669.85054815</v>
+        <v>5253009.821448086</v>
       </c>
       <c r="H40" t="n">
-        <v>10708203.03126326</v>
+        <v>5581913.715012794</v>
       </c>
       <c r="I40" t="n">
-        <v>12404841.3666991</v>
+        <v>5509242.916803178</v>
       </c>
       <c r="J40" t="n">
-        <v>11773107.02312694</v>
+        <v>5841465.737750293</v>
       </c>
       <c r="K40" t="n">
-        <v>12200888.49767985</v>
+        <v>5503210.804143088</v>
       </c>
       <c r="L40" t="n">
-        <v>11244421.67839497</v>
+        <v>5832114.697707796</v>
       </c>
       <c r="M40" t="n">
-        <v>12941060.01383081</v>
+        <v>5759443.89949818</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6976766.88627994</v>
+        <v>3226641.23194939</v>
       </c>
       <c r="C41" t="n">
-        <v>8641946.739679059</v>
+        <v>2898853.947222113</v>
       </c>
       <c r="D41" t="n">
-        <v>6760634.890535518</v>
+        <v>2991638.132963855</v>
       </c>
       <c r="E41" t="n">
-        <v>7273708.852380088</v>
+        <v>3058364.99447821</v>
       </c>
       <c r="F41" t="n">
-        <v>7028235.535730897</v>
+        <v>3368118.220803059</v>
       </c>
       <c r="G41" t="n">
-        <v>8693415.389130017</v>
+        <v>3040330.936075781</v>
       </c>
       <c r="H41" t="n">
-        <v>6812103.539986475</v>
+        <v>3133115.121817524</v>
       </c>
       <c r="I41" t="n">
-        <v>7325177.501831045</v>
+        <v>3199841.983331879</v>
       </c>
       <c r="J41" t="n">
-        <v>7079704.185181855</v>
+        <v>3509595.209656728</v>
       </c>
       <c r="K41" t="n">
-        <v>8744884.038580975</v>
+        <v>3181807.92492945</v>
       </c>
       <c r="L41" t="n">
-        <v>6863572.189437433</v>
+        <v>3274592.110671192</v>
       </c>
       <c r="M41" t="n">
-        <v>7376646.151282003</v>
+        <v>3341318.972185548</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9260584.830765998</v>
+        <v>3995696.465984643</v>
       </c>
       <c r="C42" t="n">
-        <v>9954895.019329261</v>
+        <v>3891921.567149634</v>
       </c>
       <c r="D42" t="n">
-        <v>8025898.753924431</v>
+        <v>4020335.252165088</v>
       </c>
       <c r="E42" t="n">
-        <v>9263811.597193964</v>
+        <v>4106554.660248304</v>
       </c>
       <c r="F42" t="n">
-        <v>9786220.828226959</v>
+        <v>4156172.122315243</v>
       </c>
       <c r="G42" t="n">
-        <v>10480531.01679022</v>
+        <v>4052397.223480234</v>
       </c>
       <c r="H42" t="n">
-        <v>8551534.751385393</v>
+        <v>4180810.908495689</v>
       </c>
       <c r="I42" t="n">
-        <v>9789447.594654925</v>
+        <v>4267030.316578903</v>
       </c>
       <c r="J42" t="n">
-        <v>10311856.82568792</v>
+        <v>4316647.778645843</v>
       </c>
       <c r="K42" t="n">
-        <v>11006167.01425118</v>
+        <v>4212872.879810834</v>
       </c>
       <c r="L42" t="n">
-        <v>9077170.748846354</v>
+        <v>4341286.564826289</v>
       </c>
       <c r="M42" t="n">
-        <v>10315083.59211589</v>
+        <v>4427505.972909504</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5610687.757527845</v>
+        <v>2971648.266573341</v>
       </c>
       <c r="C43" t="n">
-        <v>5372575.136496915</v>
+        <v>2788095.007020894</v>
       </c>
       <c r="D43" t="n">
-        <v>4736288.674606118</v>
+        <v>2789010.286743425</v>
       </c>
       <c r="E43" t="n">
-        <v>5124090.835783446</v>
+        <v>3191984.34764866</v>
       </c>
       <c r="F43" t="n">
-        <v>5804871.391349146</v>
+        <v>3021248.822259534</v>
       </c>
       <c r="G43" t="n">
-        <v>5566758.770318217</v>
+        <v>2837695.562707087</v>
       </c>
       <c r="H43" t="n">
-        <v>4930472.30842742</v>
+        <v>2838610.842429618</v>
       </c>
       <c r="I43" t="n">
-        <v>5318274.469604747</v>
+        <v>3241584.903334853</v>
       </c>
       <c r="J43" t="n">
-        <v>5999055.025170447</v>
+        <v>3070849.377945726</v>
       </c>
       <c r="K43" t="n">
-        <v>5760942.404139518</v>
+        <v>2887296.118393279</v>
       </c>
       <c r="L43" t="n">
-        <v>5124655.942248721</v>
+        <v>2888211.39811581</v>
       </c>
       <c r="M43" t="n">
-        <v>5512458.103426049</v>
+        <v>3291185.459021045</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13770328.24029848</v>
+        <v>5522824.332613656</v>
       </c>
       <c r="C44" t="n">
-        <v>14735385.98929181</v>
+        <v>5232561.129166924</v>
       </c>
       <c r="D44" t="n">
-        <v>14046594.90437264</v>
+        <v>5390662.400399557</v>
       </c>
       <c r="E44" t="n">
-        <v>14565272.96526865</v>
+        <v>5784752.242348053</v>
       </c>
       <c r="F44" t="n">
-        <v>14457239.82608837</v>
+        <v>5647493.553426391</v>
       </c>
       <c r="G44" t="n">
-        <v>15422297.57508171</v>
+        <v>5357230.349979659</v>
       </c>
       <c r="H44" t="n">
-        <v>14733506.49016254</v>
+        <v>5515331.621212292</v>
       </c>
       <c r="I44" t="n">
-        <v>15252184.55105854</v>
+        <v>5909421.463160788</v>
       </c>
       <c r="J44" t="n">
-        <v>15144151.41187827</v>
+        <v>5772162.774239125</v>
       </c>
       <c r="K44" t="n">
-        <v>16109209.1608716</v>
+        <v>5481899.570792393</v>
       </c>
       <c r="L44" t="n">
-        <v>15420418.07595243</v>
+        <v>5640000.842025026</v>
       </c>
       <c r="M44" t="n">
-        <v>15939096.13684844</v>
+        <v>6034090.683973522</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5663091.381275258</v>
+        <v>3213749.653214061</v>
       </c>
       <c r="C45" t="n">
-        <v>5634221.541481533</v>
+        <v>3117478.798619246</v>
       </c>
       <c r="D45" t="n">
-        <v>5007212.928099188</v>
+        <v>3086382.983886132</v>
       </c>
       <c r="E45" t="n">
-        <v>5329261.298434253</v>
+        <v>3338444.790191252</v>
       </c>
       <c r="F45" t="n">
-        <v>5929917.574406459</v>
+        <v>3355328.705786449</v>
       </c>
       <c r="G45" t="n">
-        <v>5901047.734612734</v>
+        <v>3259057.851191634</v>
       </c>
       <c r="H45" t="n">
-        <v>5274039.121230389</v>
+        <v>3227962.03645852</v>
       </c>
       <c r="I45" t="n">
-        <v>5596087.491565454</v>
+        <v>3480023.84276364</v>
       </c>
       <c r="J45" t="n">
-        <v>6196743.76753766</v>
+        <v>3496907.758358838</v>
       </c>
       <c r="K45" t="n">
-        <v>6167873.927743935</v>
+        <v>3400636.903764022</v>
       </c>
       <c r="L45" t="n">
-        <v>5540865.31436159</v>
+        <v>3369541.089030908</v>
       </c>
       <c r="M45" t="n">
-        <v>5862913.684696655</v>
+        <v>3621602.895336028</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13554789.97941453</v>
+        <v>2101494.268900592</v>
       </c>
       <c r="C46" t="n">
-        <v>13978636.00007231</v>
+        <v>2057215.339538528</v>
       </c>
       <c r="D46" t="n">
-        <v>11085414.08295881</v>
+        <v>2194753.651053273</v>
       </c>
       <c r="E46" t="n">
-        <v>12916052.80079054</v>
+        <v>2216836.675068023</v>
       </c>
       <c r="F46" t="n">
-        <v>14320440.00759705</v>
+        <v>2110083.101046739</v>
       </c>
       <c r="G46" t="n">
-        <v>14744286.02825482</v>
+        <v>2065804.171684675</v>
       </c>
       <c r="H46" t="n">
-        <v>11851064.11114132</v>
+        <v>2203342.48319942</v>
       </c>
       <c r="I46" t="n">
-        <v>13681702.82897306</v>
+        <v>2225425.50721417</v>
       </c>
       <c r="J46" t="n">
-        <v>15086090.03577956</v>
+        <v>2118671.933192886</v>
       </c>
       <c r="K46" t="n">
-        <v>15509936.05643734</v>
+        <v>2074393.003830823</v>
       </c>
       <c r="L46" t="n">
-        <v>12616714.13932383</v>
+        <v>2211931.315345568</v>
       </c>
       <c r="M46" t="n">
-        <v>14447352.85715557</v>
+        <v>2234014.339360318</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2326495.235309325</v>
+        <v>1741602.690448486</v>
       </c>
       <c r="C47" t="n">
-        <v>2417318.195602571</v>
+        <v>1796854.162859326</v>
       </c>
       <c r="D47" t="n">
-        <v>2491883.413555195</v>
+        <v>1774140.761035605</v>
       </c>
       <c r="E47" t="n">
-        <v>2561675.378580184</v>
+        <v>1812962.400063681</v>
       </c>
       <c r="F47" t="n">
-        <v>2694531.55358866</v>
+        <v>1886736.800602038</v>
       </c>
       <c r="G47" t="n">
-        <v>2785354.513881906</v>
+        <v>1941988.273012878</v>
       </c>
       <c r="H47" t="n">
-        <v>2859919.73183453</v>
+        <v>1919274.871189157</v>
       </c>
       <c r="I47" t="n">
-        <v>2929711.696859519</v>
+        <v>1958096.510217234</v>
       </c>
       <c r="J47" t="n">
-        <v>3062567.871867995</v>
+        <v>2031870.91075559</v>
       </c>
       <c r="K47" t="n">
-        <v>3153390.832161242</v>
+        <v>2087122.38316643</v>
       </c>
       <c r="L47" t="n">
-        <v>3227956.050113865</v>
+        <v>2064408.981342709</v>
       </c>
       <c r="M47" t="n">
-        <v>3297748.015138854</v>
+        <v>2103230.620370785</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>678072.6629472669</v>
+        <v>5288486.559597814</v>
       </c>
       <c r="C48" t="n">
-        <v>806431.327361808</v>
+        <v>5240204.190087213</v>
       </c>
       <c r="D48" t="n">
-        <v>700781.6122109924</v>
+        <v>5386434.15406133</v>
       </c>
       <c r="E48" t="n">
-        <v>691313.0216359977</v>
+        <v>5425502.18756624</v>
       </c>
       <c r="F48" t="n">
-        <v>739582.9983021478</v>
+        <v>5629552.510972009</v>
       </c>
       <c r="G48" t="n">
-        <v>867941.6627166889</v>
+        <v>5581270.141461409</v>
       </c>
       <c r="H48" t="n">
-        <v>762291.9475658733</v>
+        <v>5727500.105435525</v>
       </c>
       <c r="I48" t="n">
-        <v>752823.3569908786</v>
+        <v>5766568.138940436</v>
       </c>
       <c r="J48" t="n">
-        <v>801093.3336570287</v>
+        <v>5970618.462346205</v>
       </c>
       <c r="K48" t="n">
-        <v>929451.9980715698</v>
+        <v>5922336.092835604</v>
       </c>
       <c r="L48" t="n">
-        <v>823802.2829207542</v>
+        <v>6068566.056809721</v>
       </c>
       <c r="M48" t="n">
-        <v>814333.6923457595</v>
+        <v>6107634.090314631</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>810265.1984835005</v>
+        <v>690695.0528315488</v>
       </c>
       <c r="C49" t="n">
-        <v>740123.0121393602</v>
+        <v>637930.2055810471</v>
       </c>
       <c r="D49" t="n">
-        <v>668602.7774968639</v>
+        <v>641467.7940815747</v>
       </c>
       <c r="E49" t="n">
-        <v>763958.2100576289</v>
+        <v>726420.1243510493</v>
       </c>
       <c r="F49" t="n">
-        <v>840726.4942287238</v>
+        <v>751570.5426008926</v>
       </c>
       <c r="G49" t="n">
-        <v>770584.3078845835</v>
+        <v>698805.6953503909</v>
       </c>
       <c r="H49" t="n">
-        <v>699064.0732420871</v>
+        <v>702343.2838509184</v>
       </c>
       <c r="I49" t="n">
-        <v>794419.5058028522</v>
+        <v>787295.6141203931</v>
       </c>
       <c r="J49" t="n">
-        <v>871187.7899739471</v>
+        <v>812446.0323702364</v>
       </c>
       <c r="K49" t="n">
-        <v>801045.6036298068</v>
+        <v>759681.1851197346</v>
       </c>
       <c r="L49" t="n">
-        <v>729525.3689873104</v>
+        <v>763218.7736202622</v>
       </c>
       <c r="M49" t="n">
-        <v>824880.8015480755</v>
+        <v>848171.1038897368</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1734293.252140314</v>
+        <v>2927492.388600974</v>
       </c>
       <c r="C50" t="n">
-        <v>1822407.041196761</v>
+        <v>2896526.586457174</v>
       </c>
       <c r="D50" t="n">
-        <v>1778052.419933807</v>
+        <v>3069577.252331438</v>
       </c>
       <c r="E50" t="n">
-        <v>1843712.311080262</v>
+        <v>3120956.212603487</v>
       </c>
       <c r="F50" t="n">
-        <v>1883799.236771909</v>
+        <v>3307743.260405409</v>
       </c>
       <c r="G50" t="n">
-        <v>1971913.025828356</v>
+        <v>3276777.458261609</v>
       </c>
       <c r="H50" t="n">
-        <v>1927558.404565402</v>
+        <v>3449828.124135872</v>
       </c>
       <c r="I50" t="n">
-        <v>1993218.295711857</v>
+        <v>3501207.084407921</v>
       </c>
       <c r="J50" t="n">
-        <v>2033305.221403504</v>
+        <v>3687994.132209843</v>
       </c>
       <c r="K50" t="n">
-        <v>2121419.010459951</v>
+        <v>3657028.330066044</v>
       </c>
       <c r="L50" t="n">
-        <v>2077064.389196998</v>
+        <v>3830078.995940307</v>
       </c>
       <c r="M50" t="n">
-        <v>2142724.280343453</v>
+        <v>3881457.956212356</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2307867.806247357</v>
+        <v>2971888.535972639</v>
       </c>
       <c r="C51" t="n">
-        <v>2357782.778405291</v>
+        <v>2970067.357559853</v>
       </c>
       <c r="D51" t="n">
-        <v>2284700.274128379</v>
+        <v>3041583.607121266</v>
       </c>
       <c r="E51" t="n">
-        <v>2407163.074750749</v>
+        <v>3079419.641705667</v>
       </c>
       <c r="F51" t="n">
-        <v>2501329.682300102</v>
+        <v>3219566.215338694</v>
       </c>
       <c r="G51" t="n">
-        <v>2551244.654458036</v>
+        <v>3217745.036925909</v>
       </c>
       <c r="H51" t="n">
-        <v>2478162.150181124</v>
+        <v>3289261.286487322</v>
       </c>
       <c r="I51" t="n">
-        <v>2600624.950803494</v>
+        <v>3327097.321071723</v>
       </c>
       <c r="J51" t="n">
-        <v>2694791.558352846</v>
+        <v>3467243.89470475</v>
       </c>
       <c r="K51" t="n">
-        <v>2744706.530510781</v>
+        <v>3465422.716291965</v>
       </c>
       <c r="L51" t="n">
-        <v>2671624.026233869</v>
+        <v>3536938.965853378</v>
       </c>
       <c r="M51" t="n">
-        <v>2794086.826856239</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2852725.087282896</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3152791.400720591</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2841526.606872234</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3145759.051265604</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3087030.219683036</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3387096.533120731</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3075831.739272374</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3380064.183665744</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3321335.352083176</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3621401.665520872</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3310136.871672514</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3614369.316065884</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1368516.911127344</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1274585.889534999</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1270579.475660162</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1330564.087016594</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1480756.267918428</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1386825.246326083</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1382818.832451247</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1442803.443807679</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1592995.624709513</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1499064.603117168</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1495058.189242332</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1555042.800598763</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1465819.877046201</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1405593.07338992</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1419058.934300696</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1657495.635643188</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1532533.093279699</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1472306.289623418</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1485772.150534194</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1724208.851876686</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1599246.309513196</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1539019.505856915</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1552485.366767691</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1790922.068110183</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3690020.353447279</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3420617.050711374</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2920526.636897103</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3428318.724542021</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3810546.699349314</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3541143.396613409</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3041052.982799138</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3548845.070444056</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3931073.045251349</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3661669.742515444</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3161579.328701173</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3669371.416346091</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3654431.460870375</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3879676.048346233</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3896803.232154607</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4040714.853527959</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3852933.854421133</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4078178.44189699</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4095305.625705365</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4239217.247078716</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4051436.24797189</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4276680.835447747</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4293808.019256122</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4437719.640629473</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5447100.589584718</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5528403.690156619</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5584780.011740663</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5915882.807890337</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5904225.925902187</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5985529.026474087</v>
-      </c>
-      <c r="H57" t="n">
-        <v>6041905.348058132</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6373008.144207805</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6361351.262219655</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6442654.362791556</v>
-      </c>
-      <c r="L57" t="n">
-        <v>6499030.6843756</v>
-      </c>
-      <c r="M57" t="n">
-        <v>6830133.480525274</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5049573.055991338</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5314570.886991241</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4976316.641801721</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5305221.193362197</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5295795.756616079</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5560793.587615983</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5222539.342426463</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5551443.893986939</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5542018.457240821</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5807016.288240724</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5468762.043051205</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5797666.59461168</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2954505.882215119</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3139818.342314056</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2812032.202654493</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2904817.477086734</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3082802.313671824</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3268114.773770762</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2940328.634111198</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3033113.908543439</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3211098.74512853</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3396411.205227467</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3068625.065567904</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3161410.340000145</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4010279.367994654</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3991049.060853077</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3887274.965536102</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4015689.42138443</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4170143.698690515</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4150913.391548939</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4047139.296231964</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4175553.752080292</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4330008.029386377</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4310777.7222448</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4207003.626927825</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4335418.082776153</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3128333.239881726</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3019177.531940279</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2835623.726276836</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2836538.486613799</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3185159.163616447</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3076003.455675</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2892449.650011557</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2893364.41034852</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3241985.087351168</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3132829.379409721</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2949275.573746278</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2950190.33408324</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5689767.517796299</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5528645.96868527</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5238383.069614408</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5396484.633040153</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5815369.079353324</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5654247.530242295</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5363984.631171432</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5522086.194597178</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5940970.640910349</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5779849.09179932</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5489586.192728457</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5647687.756154203</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3271594.225637469</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3259080.858775152</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3162809.878274418</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3131714.247282893</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3412397.200499914</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3399883.833637598</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3303612.853136863</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3272517.222145338</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3553200.175362359</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3540686.808500043</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3444415.827999308</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3413320.197007783</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2220568.607869406</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2104926.51428458</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2060647.703876662</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2198186.135426273</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2229699.540455373</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2114057.446870547</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2069778.63646263</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2207317.068012241</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2238830.473041341</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2123188.379456515</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2078909.569048597</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2216448.000598209</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1716391.601339769</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1784015.511441441</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1839263.664961694</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1816552.490206246</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1859424.743550281</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1927048.653651953</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1982296.807172206</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1959585.632416758</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2002457.885760792</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2070081.795862464</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2125329.949382717</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2102618.77462727</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4911010.800036627</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5115602.940493912</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5067313.562608735</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5213535.421877018</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5228176.971529937</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5432769.111987223</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5384479.734102045</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5530701.593370329</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5545343.143023248</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5749935.283480533</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5701645.905595356</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5847867.764863639</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>677533.9269291565</v>
-      </c>
-      <c r="C67" t="n">
-        <v>691568.141712637</v>
-      </c>
-      <c r="D67" t="n">
-        <v>638803.4292215338</v>
-      </c>
-      <c r="E67" t="n">
-        <v>642341.1471539378</v>
-      </c>
-      <c r="F67" t="n">
-        <v>738560.6080788809</v>
-      </c>
-      <c r="G67" t="n">
-        <v>752594.8228623614</v>
-      </c>
-      <c r="H67" t="n">
-        <v>699830.1103712582</v>
-      </c>
-      <c r="I67" t="n">
-        <v>703367.8283036622</v>
-      </c>
-      <c r="J67" t="n">
-        <v>799587.2892286053</v>
-      </c>
-      <c r="K67" t="n">
-        <v>813621.5040120858</v>
-      </c>
-      <c r="L67" t="n">
-        <v>760856.7915209826</v>
-      </c>
-      <c r="M67" t="n">
-        <v>764394.5094533867</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2883176.585769771</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3059832.157090276</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3039427.796946641</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3222759.611681885</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3313157.505791001</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3489813.077111506</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3469408.716967871</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3652740.531703115</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3743138.425812231</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3919793.997132736</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3899389.636989101</v>
-      </c>
-      <c r="M68" t="n">
-        <v>4082721.451724346</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3042856.159616419</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3219538.94894469</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3264861.411638835</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3381687.350565227</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3482396.925119777</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3659079.714448048</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3704402.177142193</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3821228.116068585</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3921937.690623135</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4098620.479951406</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4143942.942645551</v>
-      </c>
-      <c r="M69" t="n">
-        <v>4260768.881571943</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>7329130.466662102</v>
-      </c>
-      <c r="C70" t="n">
-        <v>7494854.85109567</v>
-      </c>
-      <c r="D70" t="n">
-        <v>7668935.507310121</v>
-      </c>
-      <c r="E70" t="n">
-        <v>8081199.259517133</v>
-      </c>
-      <c r="F70" t="n">
-        <v>7939895.31868975</v>
-      </c>
-      <c r="G70" t="n">
-        <v>8105619.703123317</v>
-      </c>
-      <c r="H70" t="n">
-        <v>8279700.359337769</v>
-      </c>
-      <c r="I70" t="n">
-        <v>8691964.11154478</v>
-      </c>
-      <c r="J70" t="n">
-        <v>8550660.170717396</v>
-      </c>
-      <c r="K70" t="n">
-        <v>8716384.555150963</v>
-      </c>
-      <c r="L70" t="n">
-        <v>8890465.211365415</v>
-      </c>
-      <c r="M70" t="n">
-        <v>9302728.963572428</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>21160106.58194438</v>
-      </c>
-      <c r="C71" t="n">
-        <v>25132758.11192656</v>
-      </c>
-      <c r="D71" t="n">
-        <v>20753806.92338813</v>
-      </c>
-      <c r="E71" t="n">
-        <v>24468997.35679267</v>
-      </c>
-      <c r="F71" t="n">
-        <v>25196459.46713731</v>
-      </c>
-      <c r="G71" t="n">
-        <v>29169110.99711949</v>
-      </c>
-      <c r="H71" t="n">
-        <v>24790159.80858106</v>
-      </c>
-      <c r="I71" t="n">
-        <v>28505350.2419856</v>
-      </c>
-      <c r="J71" t="n">
-        <v>29232812.35233024</v>
-      </c>
-      <c r="K71" t="n">
-        <v>33205463.88231242</v>
-      </c>
-      <c r="L71" t="n">
-        <v>28826512.69377399</v>
-      </c>
-      <c r="M71" t="n">
-        <v>32541703.12717853</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>4468567.89747444</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3252564.476928806</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4456309.044663098</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3219196.234853806</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4666797.565113302</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3450794.144567669</v>
-      </c>
-      <c r="H72" t="n">
-        <v>4654538.71230196</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3417425.902492668</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4865027.232752165</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3649023.812206532</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4852768.379940824</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3615655.570131532</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>9481445.773507934</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9381960.776272731</v>
-      </c>
-      <c r="D73" t="n">
-        <v>9428068.046602562</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9896458.985003151</v>
-      </c>
-      <c r="F73" t="n">
-        <v>10272081.4967046</v>
-      </c>
-      <c r="G73" t="n">
-        <v>10172596.49946939</v>
-      </c>
-      <c r="H73" t="n">
-        <v>10218703.76979923</v>
-      </c>
-      <c r="I73" t="n">
-        <v>10687094.70819981</v>
-      </c>
-      <c r="J73" t="n">
-        <v>11062717.21990126</v>
-      </c>
-      <c r="K73" t="n">
-        <v>10963232.22266606</v>
-      </c>
-      <c r="L73" t="n">
-        <v>11009339.49299589</v>
-      </c>
-      <c r="M73" t="n">
-        <v>11477730.43139648</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>17932671.53428786</v>
-      </c>
-      <c r="C74" t="n">
-        <v>18986952.84078584</v>
-      </c>
-      <c r="D74" t="n">
-        <v>15443827.67893963</v>
-      </c>
-      <c r="E74" t="n">
-        <v>17414338.83088276</v>
-      </c>
-      <c r="F74" t="n">
-        <v>18148483.94017837</v>
-      </c>
-      <c r="G74" t="n">
-        <v>19202765.24667635</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15659640.08483014</v>
-      </c>
-      <c r="I74" t="n">
-        <v>17630151.23677327</v>
-      </c>
-      <c r="J74" t="n">
-        <v>18364296.34606888</v>
-      </c>
-      <c r="K74" t="n">
-        <v>19418577.65256686</v>
-      </c>
-      <c r="L74" t="n">
-        <v>15875452.49072065</v>
-      </c>
-      <c r="M74" t="n">
-        <v>17845963.64266378</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>24442337.89858447</v>
-      </c>
-      <c r="C75" t="n">
-        <v>27363268.99920084</v>
-      </c>
-      <c r="D75" t="n">
-        <v>24830959.47893026</v>
-      </c>
-      <c r="E75" t="n">
-        <v>26381294.24001593</v>
-      </c>
-      <c r="F75" t="n">
-        <v>26383539.76586891</v>
-      </c>
-      <c r="G75" t="n">
-        <v>29304470.86648528</v>
-      </c>
-      <c r="H75" t="n">
-        <v>26772161.3462147</v>
-      </c>
-      <c r="I75" t="n">
-        <v>28322496.10730036</v>
-      </c>
-      <c r="J75" t="n">
-        <v>28324741.63315334</v>
-      </c>
-      <c r="K75" t="n">
-        <v>31245672.73376971</v>
-      </c>
-      <c r="L75" t="n">
-        <v>28713363.21349913</v>
-      </c>
-      <c r="M75" t="n">
-        <v>30263697.9745848</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>15913525.6199197</v>
-      </c>
-      <c r="C76" t="n">
-        <v>18108997.26714672</v>
-      </c>
-      <c r="D76" t="n">
-        <v>19817866.8814082</v>
-      </c>
-      <c r="E76" t="n">
-        <v>21589020.99100504</v>
-      </c>
-      <c r="F76" t="n">
-        <v>23693193.68258057</v>
-      </c>
-      <c r="G76" t="n">
-        <v>25888665.32980759</v>
-      </c>
-      <c r="H76" t="n">
-        <v>27597534.94406908</v>
-      </c>
-      <c r="I76" t="n">
-        <v>29368689.05366591</v>
-      </c>
-      <c r="J76" t="n">
-        <v>31472861.74524144</v>
-      </c>
-      <c r="K76" t="n">
-        <v>33668333.39246847</v>
-      </c>
-      <c r="L76" t="n">
-        <v>35377203.00672995</v>
-      </c>
-      <c r="M76" t="n">
-        <v>37148357.11632679</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>16818088.89471286</v>
-      </c>
-      <c r="C77" t="n">
-        <v>16758656.58062023</v>
-      </c>
-      <c r="D77" t="n">
-        <v>16946413.85674177</v>
-      </c>
-      <c r="E77" t="n">
-        <v>17963713.64030057</v>
-      </c>
-      <c r="F77" t="n">
-        <v>18219603.0252323</v>
-      </c>
-      <c r="G77" t="n">
-        <v>18160170.71113968</v>
-      </c>
-      <c r="H77" t="n">
-        <v>18347927.98726122</v>
-      </c>
-      <c r="I77" t="n">
-        <v>19365227.77082002</v>
-      </c>
-      <c r="J77" t="n">
-        <v>19621117.15575175</v>
-      </c>
-      <c r="K77" t="n">
-        <v>19561684.84165912</v>
-      </c>
-      <c r="L77" t="n">
-        <v>19749442.11778067</v>
-      </c>
-      <c r="M77" t="n">
-        <v>20766741.90133947</v>
+        <v>3574775.000437778</v>
       </c>
     </row>
   </sheetData>
